--- a/mols_final.xlsx
+++ b/mols_final.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amart\Documents\UOC\2020_2\TFM\Eurobarometro_FS_464\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4221DE-C6C0-4343-A8F1-2F6EB35609E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB37C941-A576-4B16-A1F8-DF9E549C4DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mfinales_paises" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">mfinales_paises!$BA$10:$BA$38</definedName>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="355">
   <si>
     <t>q4_2BIN ~ q2 + d4r2 + user8</t>
   </si>
@@ -1003,6 +1005,105 @@
   </si>
   <si>
     <t>Mediana variable ideología</t>
+  </si>
+  <si>
+    <t>País: GLOBAL. Resultados modelo</t>
+  </si>
+  <si>
+    <t>=====================================================================================================================================================================================</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                           Dependent variable:                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -----------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                 Percepción problema para la democracia                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               (1)                        (2)                        (3)                        (4)                        (5)                        (6)            </t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deteccion            0.130*** (0.121, 0.140)    0.118*** (0.108, 0.128)    0.119*** (0.109, 0.129)    0.120*** (0.110, 0.130)    0.118*** (0.108, 0.128)    0.120*** (0.111, 0.130)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">edad                                                                       0.003*** (0.002, 0.003)                                                          0.003*** (0.003, 0.004)  </t>
+  </si>
+  <si>
+    <t>sexo                                                                                                 -0.066*** (-0.087, -0.045)                            -0.060*** (-0.081, -0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estudios                                                                                                                         0.029*** (0.015, 0.043)    0.050*** (0.036, 0.065)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">veces_uso                                        0.007* (-0.001, 0.015)    0.022*** (0.014, 0.031)     0.006 (-0.002, 0.014)      0.003 (-0.005, 0.011)     0.019*** (0.010, 0.027)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">confianza                                       0.084*** (0.069, 0.098)    0.087*** (0.072, 0.101)    0.087*** (0.072, 0.101)    0.080*** (0.066, 0.095)    0.085*** (0.070, 0.099)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant             2.025*** (2.003, 2.046)    1.883*** (1.850, 1.915)    1.722*** (1.671, 1.773)    1.907*** (1.873, 1.940)    1.823*** (1.780, 1.866)    1.602*** (1.535, 1.669)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observations                  22,540                     22,540                     22,540                     22,540                     22,540                     22,540          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2                            0.030                      0.036                      0.039                      0.037                      0.037                      0.042           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R2                   0.030                      0.036                      0.038                      0.037                      0.036                      0.042           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual Std. Error    105.078 (df = 22538)       104.766 (df = 22536)       104.617 (df = 22535)       104.680 (df = 22535)       104.728 (df = 22535)       104.434 (df = 22533)   </t>
+  </si>
+  <si>
+    <t>F Statistic         696.345*** (df = 1; 22538) 278.886*** (df = 3; 22536) 226.131*** (df = 4; 22535) 219.092*** (df = 4; 22535) 213.726*** (df = 4; 22535) 164.803*** (df = 6; 22533)</t>
+  </si>
+  <si>
+    <t>Note:                                                                                                                                                     *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Detección                  Controles                     Edad                       Sexo                     Estudios                    Completo           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              Modelo                     Modelo                     Modelo                     Modelo                     Modelo                      Modelo        </t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>se(mean)</t>
+  </si>
+  <si>
+    <t>CY - Cyprus (Republic)</t>
+  </si>
+  <si>
+    <t>NL - The Netherlands</t>
+  </si>
+  <si>
+    <t>ES - Spain</t>
+  </si>
+  <si>
+    <t>mean        sd   se(mean) IQR 0% 25% 50% 75% 100%     n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.276664 0.8086538 0.00538624   1  0   2   2   3    3 22540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo </t>
+  </si>
+  <si>
+    <t>Variables regresión</t>
+  </si>
+  <si>
+    <t>Percepción &lt;- Detección</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1115,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,8 +1381,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1503,8 +1623,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="52">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -2167,6 +2293,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2212,7 +2392,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2633,6 +2813,57 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,15 +2876,6 @@
     <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2664,18 +2886,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3721,6 +3931,450 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percepción media</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por ideología gobierno</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mfinales_paises!$AZ$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percepción media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>mfinales_paises!$AY$51:$AY$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mfinales_paises!$AZ$51:$AZ$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.225031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3498999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2792300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8288-4BA1-81AA-513D1918F90E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="781435568"/>
+        <c:axId val="619396192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="781435568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Ideología del gobierno</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619396192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619396192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>VAlor variable</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> percepción </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="781435568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3802,9 +4456,10 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="3" min="0"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:numFmt formatCode="0,0" sourceLinked="0"/>
       </cx:axis>
       <cx:axis id="2">
         <cx:valScaling max="1" min="0"/>
@@ -3897,6 +4552,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5450,6 +6145,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5573,7 +6784,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="48734662" y="4995862"/>
+              <a:off x="48734662" y="4986337"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5602,6 +6813,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA3AABE-E99B-40BF-BF60-BD8F1B594C49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5906,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BG524"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K18" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:W34"/>
+    <sheetView showGridLines="0" topLeftCell="AH3" workbookViewId="0">
+      <selection activeCell="AZ49" sqref="AZ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,22 +7205,22 @@
       <c r="M3" t="s">
         <v>216</v>
       </c>
-      <c r="R3" s="180" t="s">
+      <c r="R3" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="181"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="182"/>
-      <c r="AC3" s="180" t="s">
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="184"/>
+      <c r="AC3" s="182" t="s">
         <v>219</v>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="182"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="184"/>
     </row>
     <row r="4" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6112,11 +7359,11 @@
       <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="179" t="s">
+      <c r="K5" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
       <c r="O5">
         <v>12</v>
       </c>
@@ -6350,12 +7597,12 @@
       <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="179" t="s">
+      <c r="J7" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
       <c r="O7">
         <f t="shared" ref="O7:O35" si="2">O6+18</f>
         <v>48</v>
@@ -7929,13 +9176,13 @@
       <c r="AS19" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="AT19" s="175" t="s">
+      <c r="AT19" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="AU19" s="176"/>
-      <c r="AV19" s="176"/>
-      <c r="AW19" s="176"/>
-      <c r="AX19" s="177"/>
+      <c r="AU19" s="194"/>
+      <c r="AV19" s="194"/>
+      <c r="AW19" s="194"/>
+      <c r="AX19" s="195"/>
       <c r="AY19" s="76"/>
       <c r="AZ19" s="76"/>
       <c r="BA19" s="68" t="s">
@@ -8397,11 +9644,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K23" s="179" t="s">
+      <c r="K23" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
       <c r="O23">
         <f t="shared" si="2"/>
         <v>336</v>
@@ -8688,12 +9935,12 @@
         <f t="shared" si="3"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J25" s="179" t="s">
+      <c r="J25" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="185"/>
       <c r="O25">
         <f t="shared" si="2"/>
         <v>372</v>
@@ -9004,13 +10251,13 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="AS27" s="75"/>
-      <c r="AT27" s="175" t="s">
+      <c r="AT27" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="AU27" s="176"/>
-      <c r="AV27" s="176"/>
-      <c r="AW27" s="176"/>
-      <c r="AX27" s="177"/>
+      <c r="AU27" s="194"/>
+      <c r="AV27" s="194"/>
+      <c r="AW27" s="194"/>
+      <c r="AX27" s="195"/>
       <c r="BA27" s="67" t="s">
         <v>259</v>
       </c>
@@ -10090,13 +11337,13 @@
       <c r="U39" s="55"/>
       <c r="V39" s="55"/>
       <c r="W39" s="55"/>
-      <c r="AT39" s="178" t="s">
+      <c r="AT39" s="196" t="s">
         <v>298</v>
       </c>
-      <c r="AU39" s="178"/>
-      <c r="AV39" s="178"/>
-      <c r="AW39" s="178"/>
-      <c r="AX39" s="178"/>
+      <c r="AU39" s="196"/>
+      <c r="AV39" s="196"/>
+      <c r="AW39" s="196"/>
+      <c r="AX39" s="196"/>
       <c r="BE39" s="62" t="s">
         <v>318</v>
       </c>
@@ -10110,13 +11357,13 @@
         <v>106</v>
       </c>
       <c r="P40" s="19"/>
-      <c r="U40" s="172" t="s">
+      <c r="U40" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
-      <c r="X40" s="173"/>
-      <c r="Y40" s="174"/>
+      <c r="V40" s="187"/>
+      <c r="W40" s="187"/>
+      <c r="X40" s="187"/>
+      <c r="Y40" s="188"/>
       <c r="AT40" s="121">
         <v>4</v>
       </c>
@@ -10141,11 +11388,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K41" s="179" t="s">
+      <c r="K41" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
+      <c r="L41" s="185"/>
+      <c r="M41" s="185"/>
       <c r="P41" s="19"/>
       <c r="T41" s="38" t="s">
         <v>215</v>
@@ -10222,12 +11469,12 @@
         <f t="shared" si="3"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J43" s="179" t="s">
+      <c r="J43" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K43" s="179"/>
-      <c r="L43" s="179"/>
-      <c r="M43" s="179"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="185"/>
+      <c r="M43" s="185"/>
       <c r="P43" s="19"/>
       <c r="T43" s="36" t="s">
         <v>224</v>
@@ -10395,13 +11642,13 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="P48" s="19"/>
-      <c r="U48" s="172" t="s">
+      <c r="U48" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="V48" s="173"/>
-      <c r="W48" s="173"/>
-      <c r="X48" s="173"/>
-      <c r="Y48" s="174"/>
+      <c r="V48" s="187"/>
+      <c r="W48" s="187"/>
+      <c r="X48" s="187"/>
+      <c r="Y48" s="188"/>
       <c r="Z48" s="22"/>
       <c r="AS48" s="115" t="s">
         <v>274</v>
@@ -10529,10 +11776,10 @@
         <v>295</v>
       </c>
       <c r="AY51" s="150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ51" s="147">
-        <v>2.225031</v>
+        <v>2.3592</v>
       </c>
     </row>
     <row r="52" spans="8:53" x14ac:dyDescent="0.25">
@@ -10619,10 +11866,10 @@
         <v>276</v>
       </c>
       <c r="AY53" s="151">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ53" s="148">
-        <v>2.2792300000000001</v>
+        <v>2.225031</v>
       </c>
     </row>
     <row r="54" spans="8:53" x14ac:dyDescent="0.25">
@@ -10698,10 +11945,10 @@
       <c r="Z55" s="22"/>
       <c r="AS55" s="61"/>
       <c r="AY55" s="152">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ55" s="149">
-        <v>2.3592</v>
+        <v>2.2792300000000001</v>
       </c>
     </row>
     <row r="56" spans="8:53" x14ac:dyDescent="0.25">
@@ -10783,11 +12030,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K59" s="179" t="s">
+      <c r="K59" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L59" s="179"/>
-      <c r="M59" s="179"/>
+      <c r="L59" s="185"/>
+      <c r="M59" s="185"/>
       <c r="P59" s="18"/>
       <c r="T59" s="22"/>
       <c r="U59" s="22"/>
@@ -10828,12 +12075,12 @@
         <f t="shared" si="3"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J61" s="179" t="s">
+      <c r="J61" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K61" s="179"/>
-      <c r="L61" s="179"/>
-      <c r="M61" s="179"/>
+      <c r="K61" s="185"/>
+      <c r="L61" s="185"/>
+      <c r="M61" s="185"/>
       <c r="P61" s="19"/>
       <c r="T61" s="56" t="s">
         <v>228</v>
@@ -10857,13 +12104,13 @@
         <v>108</v>
       </c>
       <c r="P62" s="19"/>
-      <c r="U62" s="172" t="s">
+      <c r="U62" s="186" t="s">
         <v>229</v>
       </c>
-      <c r="V62" s="173"/>
-      <c r="W62" s="173"/>
-      <c r="X62" s="173"/>
-      <c r="Y62" s="174"/>
+      <c r="V62" s="187"/>
+      <c r="W62" s="187"/>
+      <c r="X62" s="187"/>
+      <c r="Y62" s="188"/>
       <c r="Z62" s="22"/>
       <c r="AS62" s="62" t="s">
         <v>283</v>
@@ -11191,18 +12438,18 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K77" s="179" t="s">
+      <c r="K77" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L77" s="179"/>
-      <c r="M77" s="179"/>
-      <c r="AT77" s="171" t="s">
+      <c r="L77" s="185"/>
+      <c r="M77" s="185"/>
+      <c r="AT77" s="192" t="s">
         <v>304</v>
       </c>
-      <c r="AU77" s="171"/>
-      <c r="AV77" s="171"/>
-      <c r="AW77" s="171"/>
-      <c r="AX77" s="171"/>
+      <c r="AU77" s="192"/>
+      <c r="AV77" s="192"/>
+      <c r="AW77" s="192"/>
+      <c r="AX77" s="192"/>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="H78" t="str">
@@ -11225,12 +12472,12 @@
         <f t="shared" si="7"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J79" s="179" t="s">
+      <c r="J79" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K79" s="179"/>
-      <c r="L79" s="179"/>
-      <c r="M79" s="179"/>
+      <c r="K79" s="185"/>
+      <c r="L79" s="185"/>
+      <c r="M79" s="185"/>
       <c r="AS79" s="131" t="s">
         <v>294</v>
       </c>
@@ -11245,12 +12492,12 @@
       <c r="L80" s="57"/>
       <c r="M80" s="57"/>
       <c r="AS80" s="131"/>
-      <c r="AT80" s="168" t="s">
+      <c r="AT80" s="189" t="s">
         <v>307</v>
       </c>
-      <c r="AU80" s="169"/>
-      <c r="AV80" s="169"/>
-      <c r="AW80" s="170"/>
+      <c r="AU80" s="190"/>
+      <c r="AV80" s="190"/>
+      <c r="AW80" s="191"/>
     </row>
     <row r="81" spans="8:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H81" t="str">
@@ -11549,11 +12796,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K96" s="179" t="s">
+      <c r="K96" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L96" s="179"/>
-      <c r="M96" s="179"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="185"/>
     </row>
     <row r="97" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H97" t="str">
@@ -11569,12 +12816,12 @@
         <f t="shared" si="7"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J98" s="179" t="s">
+      <c r="J98" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K98" s="179"/>
-      <c r="L98" s="179"/>
-      <c r="M98" s="179"/>
+      <c r="K98" s="185"/>
+      <c r="L98" s="185"/>
+      <c r="M98" s="185"/>
     </row>
     <row r="99" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H99" t="str">
@@ -11773,11 +13020,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K114" s="179" t="s">
+      <c r="K114" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L114" s="179"/>
-      <c r="M114" s="179"/>
+      <c r="L114" s="185"/>
+      <c r="M114" s="185"/>
     </row>
     <row r="115" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H115" t="str">
@@ -11793,12 +13040,12 @@
         <f t="shared" si="7"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J116" s="179" t="s">
+      <c r="J116" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K116" s="179"/>
-      <c r="L116" s="179"/>
-      <c r="M116" s="179"/>
+      <c r="K116" s="185"/>
+      <c r="L116" s="185"/>
+      <c r="M116" s="185"/>
     </row>
     <row r="117" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H117" t="str">
@@ -11997,11 +13244,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K132" s="179" t="s">
+      <c r="K132" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L132" s="179"/>
-      <c r="M132" s="179"/>
+      <c r="L132" s="185"/>
+      <c r="M132" s="185"/>
     </row>
     <row r="133" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H133" t="str">
@@ -12017,12 +13264,12 @@
         <f t="shared" si="7"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J134" s="179" t="s">
+      <c r="J134" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K134" s="179"/>
-      <c r="L134" s="179"/>
-      <c r="M134" s="179"/>
+      <c r="K134" s="185"/>
+      <c r="L134" s="185"/>
+      <c r="M134" s="185"/>
     </row>
     <row r="135" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H135" t="str">
@@ -12221,11 +13468,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K150" s="179" t="s">
+      <c r="K150" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L150" s="179"/>
-      <c r="M150" s="179"/>
+      <c r="L150" s="185"/>
+      <c r="M150" s="185"/>
     </row>
     <row r="151" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H151" t="str">
@@ -12241,12 +13488,12 @@
         <f t="shared" si="8"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J152" s="179" t="s">
+      <c r="J152" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K152" s="179"/>
-      <c r="L152" s="179"/>
-      <c r="M152" s="179"/>
+      <c r="K152" s="185"/>
+      <c r="L152" s="185"/>
+      <c r="M152" s="185"/>
     </row>
     <row r="153" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H153" t="str">
@@ -12445,11 +13692,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K168" s="179" t="s">
+      <c r="K168" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L168" s="179"/>
-      <c r="M168" s="179"/>
+      <c r="L168" s="185"/>
+      <c r="M168" s="185"/>
     </row>
     <row r="169" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H169" t="str">
@@ -12465,12 +13712,12 @@
         <f t="shared" si="8"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J170" s="179" t="s">
+      <c r="J170" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K170" s="179"/>
-      <c r="L170" s="179"/>
-      <c r="M170" s="179"/>
+      <c r="K170" s="185"/>
+      <c r="L170" s="185"/>
+      <c r="M170" s="185"/>
     </row>
     <row r="171" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H171" t="str">
@@ -12669,11 +13916,11 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K186" s="179" t="s">
+      <c r="K186" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L186" s="179"/>
-      <c r="M186" s="179"/>
+      <c r="L186" s="185"/>
+      <c r="M186" s="185"/>
     </row>
     <row r="187" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H187" t="str">
@@ -12689,12 +13936,12 @@
         <f t="shared" si="8"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J188" s="179" t="s">
+      <c r="J188" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K188" s="179"/>
-      <c r="L188" s="179"/>
-      <c r="M188" s="179"/>
+      <c r="K188" s="185"/>
+      <c r="L188" s="185"/>
+      <c r="M188" s="185"/>
     </row>
     <row r="189" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H189" t="str">
@@ -12893,11 +14140,11 @@
         <f t="shared" ref="H204:H267" si="9">CONCATENATE(I204,J204)</f>
         <v/>
       </c>
-      <c r="K204" s="179" t="s">
+      <c r="K204" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L204" s="179"/>
-      <c r="M204" s="179"/>
+      <c r="L204" s="185"/>
+      <c r="M204" s="185"/>
     </row>
     <row r="205" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H205" t="str">
@@ -12913,12 +14160,12 @@
         <f t="shared" si="9"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J206" s="179" t="s">
+      <c r="J206" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K206" s="179"/>
-      <c r="L206" s="179"/>
-      <c r="M206" s="179"/>
+      <c r="K206" s="185"/>
+      <c r="L206" s="185"/>
+      <c r="M206" s="185"/>
     </row>
     <row r="207" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H207" t="str">
@@ -13117,11 +14364,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K222" s="179" t="s">
+      <c r="K222" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L222" s="179"/>
-      <c r="M222" s="179"/>
+      <c r="L222" s="185"/>
+      <c r="M222" s="185"/>
     </row>
     <row r="223" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H223" t="str">
@@ -13137,12 +14384,12 @@
         <f t="shared" si="9"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J224" s="179" t="s">
+      <c r="J224" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K224" s="179"/>
-      <c r="L224" s="179"/>
-      <c r="M224" s="179"/>
+      <c r="K224" s="185"/>
+      <c r="L224" s="185"/>
+      <c r="M224" s="185"/>
     </row>
     <row r="225" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H225" t="str">
@@ -13341,11 +14588,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K240" s="179" t="s">
+      <c r="K240" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L240" s="179"/>
-      <c r="M240" s="179"/>
+      <c r="L240" s="185"/>
+      <c r="M240" s="185"/>
     </row>
     <row r="241" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H241" t="str">
@@ -13361,12 +14608,12 @@
         <f t="shared" si="9"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J242" s="179" t="s">
+      <c r="J242" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K242" s="179"/>
-      <c r="L242" s="179"/>
-      <c r="M242" s="179"/>
+      <c r="K242" s="185"/>
+      <c r="L242" s="185"/>
+      <c r="M242" s="185"/>
     </row>
     <row r="243" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H243" t="str">
@@ -13565,11 +14812,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K258" s="179" t="s">
+      <c r="K258" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L258" s="179"/>
-      <c r="M258" s="179"/>
+      <c r="L258" s="185"/>
+      <c r="M258" s="185"/>
     </row>
     <row r="259" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H259" t="str">
@@ -13585,12 +14832,12 @@
         <f t="shared" si="9"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J260" s="179" t="s">
+      <c r="J260" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K260" s="179"/>
-      <c r="L260" s="179"/>
-      <c r="M260" s="179"/>
+      <c r="K260" s="185"/>
+      <c r="L260" s="185"/>
+      <c r="M260" s="185"/>
     </row>
     <row r="261" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H261" t="str">
@@ -13789,11 +15036,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K276" s="179" t="s">
+      <c r="K276" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L276" s="179"/>
-      <c r="M276" s="179"/>
+      <c r="L276" s="185"/>
+      <c r="M276" s="185"/>
     </row>
     <row r="277" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H277" t="str">
@@ -13809,12 +15056,12 @@
         <f t="shared" si="10"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J278" s="179" t="s">
+      <c r="J278" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K278" s="179"/>
-      <c r="L278" s="179"/>
-      <c r="M278" s="179"/>
+      <c r="K278" s="185"/>
+      <c r="L278" s="185"/>
+      <c r="M278" s="185"/>
     </row>
     <row r="279" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H279" t="str">
@@ -14013,11 +15260,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K294" s="179" t="s">
+      <c r="K294" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L294" s="179"/>
-      <c r="M294" s="179"/>
+      <c r="L294" s="185"/>
+      <c r="M294" s="185"/>
     </row>
     <row r="295" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H295" t="str">
@@ -14033,12 +15280,12 @@
         <f t="shared" si="10"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J296" s="179" t="s">
+      <c r="J296" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K296" s="179"/>
-      <c r="L296" s="179"/>
-      <c r="M296" s="179"/>
+      <c r="K296" s="185"/>
+      <c r="L296" s="185"/>
+      <c r="M296" s="185"/>
     </row>
     <row r="297" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H297" t="str">
@@ -14237,11 +15484,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K312" s="179" t="s">
+      <c r="K312" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L312" s="179"/>
-      <c r="M312" s="179"/>
+      <c r="L312" s="185"/>
+      <c r="M312" s="185"/>
     </row>
     <row r="313" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H313" t="str">
@@ -14257,12 +15504,12 @@
         <f t="shared" si="10"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J314" s="179" t="s">
+      <c r="J314" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K314" s="179"/>
-      <c r="L314" s="179"/>
-      <c r="M314" s="179"/>
+      <c r="K314" s="185"/>
+      <c r="L314" s="185"/>
+      <c r="M314" s="185"/>
     </row>
     <row r="315" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H315" t="str">
@@ -14461,11 +15708,11 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K330" s="179" t="s">
+      <c r="K330" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L330" s="179"/>
-      <c r="M330" s="179"/>
+      <c r="L330" s="185"/>
+      <c r="M330" s="185"/>
     </row>
     <row r="331" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H331" t="str">
@@ -14481,12 +15728,12 @@
         <f t="shared" ref="H332:H395" si="11">CONCATENATE(I332,J332)</f>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J332" s="179" t="s">
+      <c r="J332" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K332" s="179"/>
-      <c r="L332" s="179"/>
-      <c r="M332" s="179"/>
+      <c r="K332" s="185"/>
+      <c r="L332" s="185"/>
+      <c r="M332" s="185"/>
     </row>
     <row r="333" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H333" t="str">
@@ -14685,11 +15932,11 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K348" s="179" t="s">
+      <c r="K348" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L348" s="179"/>
-      <c r="M348" s="179"/>
+      <c r="L348" s="185"/>
+      <c r="M348" s="185"/>
     </row>
     <row r="349" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H349" t="str">
@@ -14705,12 +15952,12 @@
         <f t="shared" si="11"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J350" s="179" t="s">
+      <c r="J350" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K350" s="179"/>
-      <c r="L350" s="179"/>
-      <c r="M350" s="179"/>
+      <c r="K350" s="185"/>
+      <c r="L350" s="185"/>
+      <c r="M350" s="185"/>
     </row>
     <row r="351" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H351" t="str">
@@ -14909,11 +16156,11 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K366" s="179" t="s">
+      <c r="K366" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L366" s="179"/>
-      <c r="M366" s="179"/>
+      <c r="L366" s="185"/>
+      <c r="M366" s="185"/>
     </row>
     <row r="367" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H367" t="str">
@@ -14929,12 +16176,12 @@
         <f t="shared" si="11"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J368" s="179" t="s">
+      <c r="J368" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K368" s="179"/>
-      <c r="L368" s="179"/>
-      <c r="M368" s="179"/>
+      <c r="K368" s="185"/>
+      <c r="L368" s="185"/>
+      <c r="M368" s="185"/>
     </row>
     <row r="369" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H369" t="str">
@@ -15133,11 +16380,11 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K384" s="179" t="s">
+      <c r="K384" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L384" s="179"/>
-      <c r="M384" s="179"/>
+      <c r="L384" s="185"/>
+      <c r="M384" s="185"/>
     </row>
     <row r="385" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H385" t="str">
@@ -15153,12 +16400,12 @@
         <f t="shared" si="11"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J386" s="179" t="s">
+      <c r="J386" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K386" s="179"/>
-      <c r="L386" s="179"/>
-      <c r="M386" s="179"/>
+      <c r="K386" s="185"/>
+      <c r="L386" s="185"/>
+      <c r="M386" s="185"/>
     </row>
     <row r="387" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H387" t="str">
@@ -15357,11 +16604,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K402" s="179" t="s">
+      <c r="K402" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L402" s="179"/>
-      <c r="M402" s="179"/>
+      <c r="L402" s="185"/>
+      <c r="M402" s="185"/>
     </row>
     <row r="403" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H403" t="str">
@@ -15377,12 +16624,12 @@
         <f t="shared" si="12"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J404" s="179" t="s">
+      <c r="J404" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K404" s="179"/>
-      <c r="L404" s="179"/>
-      <c r="M404" s="179"/>
+      <c r="K404" s="185"/>
+      <c r="L404" s="185"/>
+      <c r="M404" s="185"/>
     </row>
     <row r="405" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H405" t="str">
@@ -15581,11 +16828,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K420" s="179" t="s">
+      <c r="K420" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L420" s="179"/>
-      <c r="M420" s="179"/>
+      <c r="L420" s="185"/>
+      <c r="M420" s="185"/>
     </row>
     <row r="421" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H421" t="str">
@@ -15601,12 +16848,12 @@
         <f t="shared" si="12"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J422" s="179" t="s">
+      <c r="J422" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K422" s="179"/>
-      <c r="L422" s="179"/>
-      <c r="M422" s="179"/>
+      <c r="K422" s="185"/>
+      <c r="L422" s="185"/>
+      <c r="M422" s="185"/>
     </row>
     <row r="423" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H423" t="str">
@@ -15805,11 +17052,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K438" s="179" t="s">
+      <c r="K438" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L438" s="179"/>
-      <c r="M438" s="179"/>
+      <c r="L438" s="185"/>
+      <c r="M438" s="185"/>
     </row>
     <row r="439" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H439" t="str">
@@ -15825,12 +17072,12 @@
         <f t="shared" si="12"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J440" s="179" t="s">
+      <c r="J440" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K440" s="179"/>
-      <c r="L440" s="179"/>
-      <c r="M440" s="179"/>
+      <c r="K440" s="185"/>
+      <c r="L440" s="185"/>
+      <c r="M440" s="185"/>
     </row>
     <row r="441" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H441" t="str">
@@ -16029,11 +17276,11 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K456" s="179" t="s">
+      <c r="K456" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L456" s="179"/>
-      <c r="M456" s="179"/>
+      <c r="L456" s="185"/>
+      <c r="M456" s="185"/>
     </row>
     <row r="457" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H457" t="str">
@@ -16049,12 +17296,12 @@
         <f t="shared" si="12"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J458" s="179" t="s">
+      <c r="J458" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K458" s="179"/>
-      <c r="L458" s="179"/>
-      <c r="M458" s="179"/>
+      <c r="K458" s="185"/>
+      <c r="L458" s="185"/>
+      <c r="M458" s="185"/>
     </row>
     <row r="459" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H459" t="str">
@@ -16253,11 +17500,11 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K474" s="179" t="s">
+      <c r="K474" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L474" s="179"/>
-      <c r="M474" s="179"/>
+      <c r="L474" s="185"/>
+      <c r="M474" s="185"/>
     </row>
     <row r="475" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H475" t="str">
@@ -16273,12 +17520,12 @@
         <f t="shared" si="13"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J476" s="179" t="s">
+      <c r="J476" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K476" s="179"/>
-      <c r="L476" s="179"/>
-      <c r="M476" s="179"/>
+      <c r="K476" s="185"/>
+      <c r="L476" s="185"/>
+      <c r="M476" s="185"/>
     </row>
     <row r="477" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H477" t="str">
@@ -16477,11 +17724,11 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K492" s="179" t="s">
+      <c r="K492" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L492" s="179"/>
-      <c r="M492" s="179"/>
+      <c r="L492" s="185"/>
+      <c r="M492" s="185"/>
     </row>
     <row r="493" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H493" t="str">
@@ -16497,12 +17744,12 @@
         <f t="shared" si="13"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J494" s="179" t="s">
+      <c r="J494" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K494" s="179"/>
-      <c r="L494" s="179"/>
-      <c r="M494" s="179"/>
+      <c r="K494" s="185"/>
+      <c r="L494" s="185"/>
+      <c r="M494" s="185"/>
     </row>
     <row r="495" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H495" t="str">
@@ -16701,11 +17948,11 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="K510" s="179" t="s">
+      <c r="K510" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="L510" s="179"/>
-      <c r="M510" s="179"/>
+      <c r="L510" s="185"/>
+      <c r="M510" s="185"/>
     </row>
     <row r="511" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H511" t="str">
@@ -16721,12 +17968,12 @@
         <f t="shared" si="13"/>
         <v>Percepción problema para la democracia</v>
       </c>
-      <c r="J512" s="179" t="s">
+      <c r="J512" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="K512" s="179"/>
-      <c r="L512" s="179"/>
-      <c r="M512" s="179"/>
+      <c r="K512" s="185"/>
+      <c r="L512" s="185"/>
+      <c r="M512" s="185"/>
     </row>
     <row r="513" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H513" t="str">
@@ -16876,11 +18123,63 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BA10:BC38">
-    <sortCondition ref="BB10:BB38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AY51:AZ55">
+    <sortCondition ref="AY51:AY55"/>
   </sortState>
   <dataConsolidate/>
   <mergeCells count="68">
+    <mergeCell ref="AT80:AW80"/>
+    <mergeCell ref="AT77:AX77"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="AT19:AX19"/>
+    <mergeCell ref="AT27:AX27"/>
+    <mergeCell ref="AT39:AX39"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="J152:M152"/>
+    <mergeCell ref="K168:M168"/>
+    <mergeCell ref="J170:M170"/>
+    <mergeCell ref="K186:M186"/>
+    <mergeCell ref="J188:M188"/>
+    <mergeCell ref="K204:M204"/>
+    <mergeCell ref="J206:M206"/>
+    <mergeCell ref="K222:M222"/>
+    <mergeCell ref="J224:M224"/>
+    <mergeCell ref="K240:M240"/>
+    <mergeCell ref="J242:M242"/>
+    <mergeCell ref="J404:M404"/>
+    <mergeCell ref="J386:M386"/>
+    <mergeCell ref="K402:M402"/>
+    <mergeCell ref="K258:M258"/>
+    <mergeCell ref="J260:M260"/>
+    <mergeCell ref="K276:M276"/>
+    <mergeCell ref="J278:M278"/>
+    <mergeCell ref="K294:M294"/>
+    <mergeCell ref="K348:M348"/>
+    <mergeCell ref="J350:M350"/>
+    <mergeCell ref="K366:M366"/>
+    <mergeCell ref="J368:M368"/>
+    <mergeCell ref="J296:M296"/>
+    <mergeCell ref="K312:M312"/>
+    <mergeCell ref="J314:M314"/>
+    <mergeCell ref="K330:M330"/>
     <mergeCell ref="AC3:AH3"/>
     <mergeCell ref="R3:W3"/>
     <mergeCell ref="J512:M512"/>
@@ -16897,61 +18196,686 @@
     <mergeCell ref="K384:M384"/>
     <mergeCell ref="K420:M420"/>
     <mergeCell ref="J332:M332"/>
-    <mergeCell ref="K348:M348"/>
-    <mergeCell ref="J350:M350"/>
-    <mergeCell ref="K366:M366"/>
-    <mergeCell ref="J368:M368"/>
-    <mergeCell ref="J296:M296"/>
-    <mergeCell ref="K312:M312"/>
-    <mergeCell ref="J314:M314"/>
-    <mergeCell ref="K330:M330"/>
-    <mergeCell ref="J404:M404"/>
-    <mergeCell ref="J386:M386"/>
-    <mergeCell ref="K402:M402"/>
-    <mergeCell ref="K258:M258"/>
-    <mergeCell ref="J260:M260"/>
-    <mergeCell ref="K276:M276"/>
-    <mergeCell ref="J278:M278"/>
-    <mergeCell ref="K294:M294"/>
-    <mergeCell ref="J206:M206"/>
-    <mergeCell ref="K222:M222"/>
-    <mergeCell ref="J224:M224"/>
-    <mergeCell ref="K240:M240"/>
-    <mergeCell ref="J242:M242"/>
-    <mergeCell ref="K168:M168"/>
-    <mergeCell ref="J170:M170"/>
-    <mergeCell ref="K186:M186"/>
-    <mergeCell ref="J188:M188"/>
-    <mergeCell ref="K204:M204"/>
-    <mergeCell ref="J116:M116"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="J152:M152"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="AT80:AW80"/>
-    <mergeCell ref="AT77:AX77"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="AT19:AX19"/>
-    <mergeCell ref="AT27:AX27"/>
-    <mergeCell ref="AT39:AX39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748630C-6D72-4E6E-BD38-EC7C3B9344AB}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="168"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="172" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="173" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="173" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="174" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="175" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="171">
+        <v>2.2766639999999998</v>
+      </c>
+      <c r="C2" s="171">
+        <v>0.80865379999999998</v>
+      </c>
+      <c r="D2" s="176">
+        <v>5.3862399999999996E-3</v>
+      </c>
+      <c r="G2" s="115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="179"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="181"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="177" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="45">
+        <v>2.2628699999999999</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0.75430870000000005</v>
+      </c>
+      <c r="D4" s="50">
+        <v>2.496398E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="177" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="45">
+        <v>2.0508850000000001</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0.90993000000000002</v>
+      </c>
+      <c r="D5" s="50">
+        <v>3.026382E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="177" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="45">
+        <v>2.4444439999999998</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0.87725830000000005</v>
+      </c>
+      <c r="D6" s="50">
+        <v>3.0486829999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="45">
+        <v>2.6349209999999998</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0.68460710000000002</v>
+      </c>
+      <c r="D7" s="50">
+        <v>3.2600339999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="177" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="45">
+        <v>2.2378119999999999</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0.84827390000000003</v>
+      </c>
+      <c r="D8" s="50">
+        <v>2.925082E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="177" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="45">
+        <v>2.2438479999999998</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0.79107649999999996</v>
+      </c>
+      <c r="D9" s="50">
+        <v>2.645755E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="177" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="45">
+        <v>2.0582400000000001</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0.80032769999999998</v>
+      </c>
+      <c r="D10" s="50">
+        <v>2.8172869999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="177" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="45">
+        <v>2.056022</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0.74690489999999998</v>
+      </c>
+      <c r="D11" s="50">
+        <v>2.7952210000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2.439791</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0.76430310000000001</v>
+      </c>
+      <c r="D12" s="50">
+        <v>2.4732270000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="177" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="45">
+        <v>2.1766200000000002</v>
+      </c>
+      <c r="C13" s="45">
+        <v>0.7331221</v>
+      </c>
+      <c r="D13" s="50">
+        <v>2.613298E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="177" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="45">
+        <v>2.1888269999999999</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0.84018769999999998</v>
+      </c>
+      <c r="D14" s="50">
+        <v>2.8084379999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="177" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="45">
+        <v>2.1563219999999998</v>
+      </c>
+      <c r="C15" s="45">
+        <v>0.79609249999999998</v>
+      </c>
+      <c r="D15" s="50">
+        <v>2.699006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="177" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="45">
+        <v>2.4675319999999998</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0.83011179999999996</v>
+      </c>
+      <c r="D16" s="50">
+        <v>2.730867E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="177" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="45">
+        <v>2.2447550000000001</v>
+      </c>
+      <c r="C17" s="45">
+        <v>0.8044519</v>
+      </c>
+      <c r="D17" s="50">
+        <v>2.746353E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="177" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="45">
+        <v>2.4431370000000001</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0.78331459999999997</v>
+      </c>
+      <c r="D18" s="50">
+        <v>2.83208E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="177" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="45">
+        <v>2.2145290000000002</v>
+      </c>
+      <c r="C19" s="45">
+        <v>0.74958630000000004</v>
+      </c>
+      <c r="D19" s="50">
+        <v>2.5254200000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="177" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="45">
+        <v>2.4604400000000002</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0.79192560000000001</v>
+      </c>
+      <c r="D20" s="50">
+        <v>2.6252080000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="177" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="45">
+        <v>2.2611189999999999</v>
+      </c>
+      <c r="C21" s="45">
+        <v>0.83431809999999995</v>
+      </c>
+      <c r="D21" s="50">
+        <v>3.160205E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="177" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="45">
+        <v>2.1509849999999999</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0.80647329999999995</v>
+      </c>
+      <c r="D22" s="50">
+        <v>3.7725229999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="177" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="45">
+        <v>2.1612529999999999</v>
+      </c>
+      <c r="C23" s="45">
+        <v>0.81263669999999999</v>
+      </c>
+      <c r="D23" s="50">
+        <v>2.7678520000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="177" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="45">
+        <v>2.5759159999999999</v>
+      </c>
+      <c r="C24" s="45">
+        <v>0.68216580000000004</v>
+      </c>
+      <c r="D24" s="50">
+        <v>3.4902639999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="177" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="45">
+        <v>2.161327</v>
+      </c>
+      <c r="C25" s="45">
+        <v>0.75849739999999999</v>
+      </c>
+      <c r="D25" s="50">
+        <v>2.5656559999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="177" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="45">
+        <v>2.2963390000000001</v>
+      </c>
+      <c r="C26" s="45">
+        <v>0.84425709999999998</v>
+      </c>
+      <c r="D26" s="50">
+        <v>2.855742E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="177" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" s="45">
+        <v>2.2979210000000001</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0.78948019999999997</v>
+      </c>
+      <c r="D27" s="50">
+        <v>2.6827630000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="177" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28" s="45">
+        <v>2.403308</v>
+      </c>
+      <c r="C28" s="45">
+        <v>0.86189789999999999</v>
+      </c>
+      <c r="D28" s="50">
+        <v>3.074288E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="177" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="45">
+        <v>2.285714</v>
+      </c>
+      <c r="C29" s="45">
+        <v>0.7412668</v>
+      </c>
+      <c r="D29" s="50">
+        <v>2.547023E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="177" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="45">
+        <v>2.3250000000000002</v>
+      </c>
+      <c r="C30" s="45">
+        <v>0.76754409999999995</v>
+      </c>
+      <c r="D30" s="50">
+        <v>2.6482789999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="178" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="52">
+        <v>2.2811059999999999</v>
+      </c>
+      <c r="C31" s="52">
+        <v>0.76652129999999996</v>
+      </c>
+      <c r="D31" s="53">
+        <v>2.6017430000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1808BD7D-10AE-4BA2-BD6B-FEB96DB89C02}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="250.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="169" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="169" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="169" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="169" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="169" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+    </row>
+    <row r="6" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="169" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="169" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="169" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="169" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+    </row>
+    <row r="10" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="169" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="169" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+    </row>
+    <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="169" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="169" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+    </row>
+    <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="169" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+    </row>
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="169" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="169" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="169" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+    </row>
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="169" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>